--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value110.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value110.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.086899170862446</v>
+        <v>2.677027463912964</v>
       </c>
       <c r="B1">
-        <v>1.948959080587073</v>
+        <v>2.253070116043091</v>
       </c>
       <c r="C1">
-        <v>4.783326872977727</v>
+        <v>1.442201495170593</v>
       </c>
       <c r="D1">
-        <v>2.145245012880474</v>
+        <v>1.514088869094849</v>
       </c>
       <c r="E1">
-        <v>0.8995716772100837</v>
+        <v>1.517507195472717</v>
       </c>
     </row>
   </sheetData>
